--- a/new-stats/hatayspor.xlsx
+++ b/new-stats/hatayspor.xlsx
@@ -2256,22 +2256,62 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M32" t="n">
+        <v>15</v>
+      </c>
+      <c r="N32" t="n">
+        <v>16</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>

--- a/new-stats/hatayspor.xlsx
+++ b/new-stats/hatayspor.xlsx
@@ -2314,22 +2314,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8</v>
+      </c>
+      <c r="N33" t="n">
+        <v>18</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/hatayspor.xlsx
+++ b/new-stats/hatayspor.xlsx
@@ -2372,22 +2372,62 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M34" t="n">
+        <v>7</v>
+      </c>
+      <c r="N34" t="n">
+        <v>22</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>

--- a/new-stats/hatayspor.xlsx
+++ b/new-stats/hatayspor.xlsx
@@ -2430,22 +2430,62 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M35" t="n">
+        <v>16</v>
+      </c>
+      <c r="N35" t="n">
+        <v>15</v>
+      </c>
+      <c r="O35" t="n">
+        <v>8</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>

--- a/new-stats/hatayspor.xlsx
+++ b/new-stats/hatayspor.xlsx
@@ -2488,22 +2488,62 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M36" t="n">
+        <v>15</v>
+      </c>
+      <c r="N36" t="n">
+        <v>20</v>
+      </c>
+      <c r="O36" t="n">
+        <v>7</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>

--- a/new-stats/hatayspor.xlsx
+++ b/new-stats/hatayspor.xlsx
@@ -2546,22 +2546,62 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>31//05/25</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M37" t="n">
+        <v>13</v>
+      </c>
+      <c r="N37" t="n">
+        <v>21</v>
+      </c>
+      <c r="O37" t="n">
+        <v>7</v>
+      </c>
+      <c r="P37" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
